--- a/data/Downscaleddata/pdfs/bottom thetao_thresholds.xlsx
+++ b/data/Downscaleddata/pdfs/bottom thetao_thresholds.xlsx
@@ -496,10 +496,10 @@
         <v>7.249047248251791</v>
       </c>
       <c r="D2" t="n">
-        <v>9.450550462036427</v>
+        <v>9.490612949700774</v>
       </c>
       <c r="E2" t="n">
-        <v>6.890510534567467</v>
+        <v>6.940963312578186</v>
       </c>
       <c r="F2" t="n">
         <v>10.78533997816571</v>
@@ -508,10 +508,10 @@
         <v>7.983046564903162</v>
       </c>
       <c r="H2" t="n">
-        <v>9.628621997020531</v>
+        <v>9.567286160285567</v>
       </c>
       <c r="I2" t="n">
-        <v>7.141563687632544</v>
+        <v>7.110558680609701</v>
       </c>
       <c r="J2" t="n">
         <v>11.27794701152119</v>
